--- a/teaching/traditional_assets/database/data/spain/spain_heathcare_information_and_technology.xlsx
+++ b/teaching/traditional_assets/database/data/spain/spain_heathcare_information_and_technology.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -590,32 +590,38 @@
           <t>Heathcare Information and Technology</t>
         </is>
       </c>
+      <c r="D2">
+        <v>0.12718</v>
+      </c>
+      <c r="F2">
+        <v>0.304</v>
+      </c>
       <c r="G2">
-        <v>0.09868852459016392</v>
+        <v>0.3440944881889763</v>
       </c>
       <c r="H2">
-        <v>-0.05606557377049181</v>
+        <v>-0.3614173228346457</v>
       </c>
       <c r="I2">
-        <v>-0.3513936993473833</v>
+        <v>-0.4072034700605307</v>
       </c>
       <c r="J2">
-        <v>-0.3513936993473833</v>
+        <v>-0.4072034700605307</v>
       </c>
       <c r="K2">
-        <v>-0.875</v>
+        <v>-6.68</v>
       </c>
       <c r="L2">
-        <v>-0.2868852459016394</v>
+        <v>-0.7514060742407198</v>
       </c>
       <c r="M2">
-        <v>0.199</v>
+        <v>0.135</v>
       </c>
       <c r="N2">
-        <v>0.02970149253731343</v>
+        <v>0.003537735849056604</v>
       </c>
       <c r="O2">
-        <v>-0.2274285714285715</v>
+        <v>-0.02020958083832336</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,79 +633,79 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>0.199</v>
+        <v>0.135</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2">
-        <v>2.88</v>
+        <v>3.602</v>
       </c>
       <c r="V2">
-        <v>0.4298507462686567</v>
+        <v>0.09439203354297694</v>
       </c>
       <c r="W2">
-        <v>-0.1822916666666667</v>
+        <v>-0.3484783601690076</v>
       </c>
       <c r="X2">
-        <v>0.1377058493548794</v>
+        <v>0.09485093502015862</v>
       </c>
       <c r="Y2">
-        <v>-0.3199975160215461</v>
+        <v>-0.4433292951891662</v>
       </c>
       <c r="Z2">
-        <v>0.3186791789938977</v>
+        <v>0.3588121691483948</v>
       </c>
       <c r="AA2">
-        <v>-0.1119818556116526</v>
+        <v>-0.1357866488304114</v>
       </c>
       <c r="AB2">
-        <v>0.1016946914192567</v>
+        <v>0.07080491912525522</v>
       </c>
       <c r="AC2">
-        <v>-0.2136765470309094</v>
+        <v>-0.2065915679556666</v>
       </c>
       <c r="AD2">
-        <v>3.78</v>
+        <v>8.92</v>
       </c>
       <c r="AE2">
-        <v>0.03875391504759414</v>
+        <v>0.4601942441905907</v>
       </c>
       <c r="AF2">
-        <v>3.818753915047594</v>
+        <v>9.380194244190591</v>
       </c>
       <c r="AG2">
-        <v>0.9387539150475939</v>
+        <v>5.77819424419059</v>
       </c>
       <c r="AH2">
-        <v>0.3630424236453216</v>
+        <v>0.1973108102169113</v>
       </c>
       <c r="AI2">
-        <v>0.2884526700588546</v>
+        <v>0.3526363062645379</v>
       </c>
       <c r="AJ2">
-        <v>0.1228935930503457</v>
+        <v>0.131507321672751</v>
       </c>
       <c r="AK2">
-        <v>0.09062421240492233</v>
+        <v>0.2512455622749677</v>
       </c>
       <c r="AL2">
-        <v>0.132</v>
+        <v>0.314</v>
       </c>
       <c r="AM2">
-        <v>0.132</v>
+        <v>0.314</v>
       </c>
       <c r="AN2">
-        <v>-4.719101123595506</v>
+        <v>-3.006403774856757</v>
       </c>
       <c r="AO2">
-        <v>-8.181818181818182</v>
+        <v>-12.11146496815287</v>
       </c>
       <c r="AP2">
-        <v>-1.171977422031953</v>
+        <v>-1.947487106232083</v>
       </c>
       <c r="AQ2">
-        <v>-8.181818181818182</v>
+        <v>-12.11146496815287</v>
       </c>
     </row>
     <row r="3">
@@ -718,32 +724,35 @@
           <t>Heathcare Information and Technology</t>
         </is>
       </c>
+      <c r="D3">
+        <v>-0.00764</v>
+      </c>
       <c r="G3">
-        <v>0.09868852459016392</v>
+        <v>-0.08892988929889299</v>
       </c>
       <c r="H3">
-        <v>-0.05606557377049181</v>
+        <v>-0.274169741697417</v>
       </c>
       <c r="I3">
-        <v>-0.3513936993473833</v>
+        <v>-0.3070989735960191</v>
       </c>
       <c r="J3">
-        <v>-0.3513936993473833</v>
+        <v>-0.3070989735960191</v>
       </c>
       <c r="K3">
-        <v>-0.875</v>
+        <v>-1.25</v>
       </c>
       <c r="L3">
-        <v>-0.2868852459016394</v>
+        <v>-0.4612546125461255</v>
       </c>
       <c r="M3">
-        <v>0.199</v>
+        <v>0.135</v>
       </c>
       <c r="N3">
-        <v>0.02970149253731343</v>
+        <v>0.0266798418972332</v>
       </c>
       <c r="O3">
-        <v>-0.2274285714285715</v>
+        <v>-0.108</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,79 +764,210 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.199</v>
+        <v>0.135</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3">
-        <v>2.88</v>
+        <v>3.22</v>
       </c>
       <c r="V3">
-        <v>0.4298507462686567</v>
+        <v>0.6363636363636365</v>
       </c>
       <c r="W3">
-        <v>-0.1822916666666667</v>
+        <v>-0.1388888888888889</v>
       </c>
       <c r="X3">
-        <v>0.1377058493548794</v>
+        <v>0.1131695098436263</v>
       </c>
       <c r="Y3">
-        <v>-0.3199975160215461</v>
+        <v>-0.2520583987325152</v>
       </c>
       <c r="Z3">
-        <v>0.3186791789938977</v>
+        <v>0.2730150945937767</v>
       </c>
       <c r="AA3">
-        <v>-0.1119818556116526</v>
+        <v>-0.08384265532596887</v>
       </c>
       <c r="AB3">
-        <v>0.1016946914192567</v>
+        <v>0.0703949260840378</v>
       </c>
       <c r="AC3">
-        <v>-0.2136765470309094</v>
+        <v>-0.1542375814100067</v>
       </c>
       <c r="AD3">
-        <v>3.78</v>
+        <v>4.74</v>
       </c>
       <c r="AE3">
-        <v>0.03875391504759414</v>
+        <v>0.02619109222605863</v>
       </c>
       <c r="AF3">
-        <v>3.818753915047594</v>
+        <v>4.766191092226059</v>
       </c>
       <c r="AG3">
-        <v>0.9387539150475939</v>
+        <v>1.546191092226059</v>
       </c>
       <c r="AH3">
-        <v>0.3630424236453216</v>
+        <v>0.4850497051697689</v>
       </c>
       <c r="AI3">
-        <v>0.2884526700588546</v>
+        <v>0.3765896909658424</v>
       </c>
       <c r="AJ3">
-        <v>0.1228935930503457</v>
+        <v>0.2340518266335898</v>
       </c>
       <c r="AK3">
-        <v>0.09062421240492233</v>
+        <v>0.1638575434848789</v>
       </c>
       <c r="AL3">
-        <v>0.132</v>
+        <v>0.1</v>
       </c>
       <c r="AM3">
-        <v>0.132</v>
+        <v>0.1</v>
       </c>
       <c r="AN3">
-        <v>-4.719101123595506</v>
+        <v>-6.26984126984127</v>
       </c>
       <c r="AO3">
-        <v>-8.181818181818182</v>
+        <v>-8.43</v>
       </c>
       <c r="AP3">
-        <v>-1.171977422031953</v>
+        <v>-2.045226312468332</v>
       </c>
       <c r="AQ3">
-        <v>-8.181818181818182</v>
+        <v>-8.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pangaea Oncology, S.A. (BME:PANG)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Heathcare Information and Technology</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>0.262</v>
+      </c>
+      <c r="F4">
+        <v>0.304</v>
+      </c>
+      <c r="G4">
+        <v>0.5339805825242717</v>
+      </c>
+      <c r="H4">
+        <v>-0.3996763754045308</v>
+      </c>
+      <c r="I4">
+        <v>-0.4511004256299202</v>
+      </c>
+      <c r="J4">
+        <v>-0.4511004256299202</v>
+      </c>
+      <c r="K4">
+        <v>-5.43</v>
+      </c>
+      <c r="L4">
+        <v>-0.8786407766990291</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0.382</v>
+      </c>
+      <c r="V4">
+        <v>0.01154078549848943</v>
+      </c>
+      <c r="W4">
+        <v>-0.5580678314491263</v>
+      </c>
+      <c r="X4">
+        <v>0.07653236019669095</v>
+      </c>
+      <c r="Y4">
+        <v>-0.6346001916458173</v>
+      </c>
+      <c r="Z4">
+        <v>0.4161615278298737</v>
+      </c>
+      <c r="AA4">
+        <v>-0.1877306423348539</v>
+      </c>
+      <c r="AB4">
+        <v>0.07121491216647265</v>
+      </c>
+      <c r="AC4">
+        <v>-0.2589455545013266</v>
+      </c>
+      <c r="AD4">
+        <v>4.18</v>
+      </c>
+      <c r="AE4">
+        <v>0.4340031519645321</v>
+      </c>
+      <c r="AF4">
+        <v>4.614003151964532</v>
+      </c>
+      <c r="AG4">
+        <v>4.232003151964532</v>
+      </c>
+      <c r="AH4">
+        <v>0.1223419092736695</v>
+      </c>
+      <c r="AI4">
+        <v>0.3308951598533222</v>
+      </c>
+      <c r="AJ4">
+        <v>0.1133612663305968</v>
+      </c>
+      <c r="AK4">
+        <v>0.312048530334658</v>
+      </c>
+      <c r="AL4">
+        <v>0.214</v>
+      </c>
+      <c r="AM4">
+        <v>0.214</v>
+      </c>
+      <c r="AN4">
+        <v>-1.890547263681592</v>
+      </c>
+      <c r="AO4">
+        <v>-13.83177570093458</v>
+      </c>
+      <c r="AP4">
+        <v>-1.914067459052253</v>
+      </c>
+      <c r="AQ4">
+        <v>-13.83177570093458</v>
       </c>
     </row>
   </sheetData>
